--- a/data_year/zb/能源/煤炭平衡表.xlsx
+++ b/data_year/zb/能源/煤炭平衡表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,1501 +553,837 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81987.41</v>
+        <v>222947.937</v>
       </c>
       <c r="C2" t="n">
-        <v>882.24</v>
+        <v>639.23</v>
       </c>
       <c r="D2" t="n">
-        <v>8794.07</v>
+        <v>17553.08</v>
       </c>
       <c r="E2" t="n">
-        <v>1495.08</v>
+        <v>3411.59250851149</v>
       </c>
       <c r="F2" t="n">
-        <v>1050.923</v>
+        <v>2147.1481274184</v>
       </c>
       <c r="G2" t="n">
-        <v>5506.47</v>
+        <v>1910.64</v>
       </c>
       <c r="H2" t="n">
-        <v>959.99</v>
+        <v>1040.05</v>
       </c>
       <c r="I2" t="n">
-        <v>8456.959999999999</v>
+        <v>9159.17354848992</v>
       </c>
       <c r="J2" t="n">
-        <v>121806.65</v>
+        <v>329728.493343611</v>
       </c>
       <c r="K2" t="n">
-        <v>36628.04</v>
+        <v>95545.92271222291</v>
       </c>
       <c r="L2" t="n">
-        <v>-1235.32</v>
+        <v>-3663.41</v>
       </c>
       <c r="M2" t="n">
-        <v>536.8200000000001</v>
+        <v>730.57826877</v>
       </c>
       <c r="N2" t="n">
-        <v>1460.98</v>
+        <v>3192.045980028</v>
       </c>
       <c r="O2" t="n">
-        <v>3191.2</v>
+        <v>11234.6227</v>
       </c>
       <c r="P2" t="n">
-        <v>55811.2</v>
+        <v>153742.48</v>
       </c>
       <c r="Q2" t="n">
-        <v>16496.4</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>49950.3642</v>
+      </c>
+      <c r="R2" t="n">
+        <v>213.42</v>
+      </c>
       <c r="S2" t="n">
-        <v>131894.54</v>
+        <v>355577.59</v>
       </c>
       <c r="T2" t="n">
-        <v>-3795.113</v>
+        <v>6569.33915455936</v>
       </c>
       <c r="U2" t="n">
-        <v>138418.45</v>
+        <v>342844.73</v>
       </c>
       <c r="V2" t="n">
-        <v>50511.043</v>
+        <v>114825.691145441</v>
       </c>
       <c r="W2" t="n">
-        <v>135689.653</v>
+        <v>349008.250845441</v>
       </c>
       <c r="X2" t="n">
-        <v>217.88</v>
+        <v>18306.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90288.33</v>
+        <v>252690.581264</v>
       </c>
       <c r="C3" t="n">
-        <v>841.28</v>
+        <v>645.85</v>
       </c>
       <c r="D3" t="n">
-        <v>8951.49</v>
+        <v>19334.17</v>
       </c>
       <c r="E3" t="n">
-        <v>1164.73</v>
+        <v>3612.20596947177</v>
       </c>
       <c r="F3" t="n">
-        <v>899.748</v>
+        <v>2206.63150691979</v>
       </c>
       <c r="G3" t="n">
-        <v>9012.870000000001</v>
+        <v>1466.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1002.07</v>
+        <v>870.47</v>
       </c>
       <c r="I3" t="n">
-        <v>8410.25</v>
+        <v>9212.05546075012</v>
       </c>
       <c r="J3" t="n">
-        <v>131446.25</v>
+        <v>368916.099138207</v>
       </c>
       <c r="K3" t="n">
-        <v>41157.92</v>
+        <v>100602.152441001</v>
       </c>
       <c r="L3" t="n">
-        <v>1148.87</v>
+        <v>-4154.79</v>
       </c>
       <c r="M3" t="n">
-        <v>504.98</v>
+        <v>796.54268469053</v>
       </c>
       <c r="N3" t="n">
-        <v>1260.87</v>
+        <v>3571.71130423192</v>
       </c>
       <c r="O3" t="n">
-        <v>2650.54</v>
+        <v>15623.376465</v>
       </c>
       <c r="P3" t="n">
-        <v>59797.86</v>
+        <v>175578.53</v>
       </c>
       <c r="Q3" t="n">
-        <v>17936.37</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
+        <v>56059.87904</v>
+      </c>
+      <c r="R3" t="n">
+        <v>346</v>
+      </c>
       <c r="S3" t="n">
-        <v>139554.67</v>
+        <v>393058.02</v>
       </c>
       <c r="T3" t="n">
-        <v>-4973.438</v>
+        <v>4096.91290393537</v>
       </c>
       <c r="U3" t="n">
-        <v>147152.65</v>
+        <v>376443.52</v>
       </c>
       <c r="V3" t="n">
-        <v>54239.778</v>
+        <v>120647.149367065</v>
       </c>
       <c r="W3" t="n">
-        <v>144528.108</v>
+        <v>388961.107096065</v>
       </c>
       <c r="X3" t="n">
-        <v>266.02</v>
+        <v>22235.79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99028.12</v>
+        <v>266015.9001048</v>
       </c>
       <c r="C4" t="n">
-        <v>851.96</v>
+        <v>614.26</v>
       </c>
       <c r="D4" t="n">
-        <v>8973.73</v>
+        <v>23779.7</v>
       </c>
       <c r="E4" t="n">
-        <v>1267.06</v>
+        <v>3883.19175712338</v>
       </c>
       <c r="F4" t="n">
-        <v>936.023</v>
+        <v>2266.11797196599</v>
       </c>
       <c r="G4" t="n">
-        <v>8389.559999999999</v>
+        <v>927.48</v>
       </c>
       <c r="H4" t="n">
-        <v>973.2</v>
+        <v>848.6</v>
       </c>
       <c r="I4" t="n">
-        <v>8412.639999999999</v>
+        <v>9253.441921571861</v>
       </c>
       <c r="J4" t="n">
-        <v>139042.35</v>
+        <v>391191.217981391</v>
       </c>
       <c r="K4" t="n">
-        <v>40014.23</v>
+        <v>98421.3495767526</v>
       </c>
       <c r="L4" t="n">
-        <v>-1131.43</v>
+        <v>-3772.04</v>
       </c>
       <c r="M4" t="n">
-        <v>513.55</v>
+        <v>766.664377893918</v>
       </c>
       <c r="N4" t="n">
-        <v>1259.08</v>
+        <v>3751.99863383109</v>
       </c>
       <c r="O4" t="n">
-        <v>1917.46</v>
+        <v>26753.9762554</v>
       </c>
       <c r="P4" t="n">
-        <v>68600.03</v>
+        <v>183530.99</v>
       </c>
       <c r="Q4" t="n">
-        <v>18624.72</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
+        <v>56768.4471032</v>
+      </c>
+      <c r="R4" t="n">
+        <v>378</v>
+      </c>
       <c r="S4" t="n">
-        <v>146644.78</v>
+        <v>418654.41</v>
       </c>
       <c r="T4" t="n">
-        <v>-5637.883</v>
+        <v>6927.50940066119</v>
       </c>
       <c r="U4" t="n">
-        <v>155040.03</v>
+        <v>394512.81</v>
       </c>
       <c r="V4" t="n">
-        <v>53254.543</v>
+        <v>118957.024239139</v>
       </c>
       <c r="W4" t="n">
-        <v>152282.663</v>
+        <v>411726.900599339</v>
       </c>
       <c r="X4" t="n">
-        <v>1125.74</v>
+        <v>28841.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120187.27</v>
+        <v>282355.346060242</v>
       </c>
       <c r="C5" t="n">
-        <v>958.3334</v>
+        <v>615.41</v>
       </c>
       <c r="D5" t="n">
-        <v>10895.45</v>
+        <v>22709.53</v>
       </c>
       <c r="E5" t="n">
-        <v>1450.62</v>
+        <v>4135.55802490326</v>
       </c>
       <c r="F5" t="n">
-        <v>1078.331</v>
+        <v>2450.56845009121</v>
       </c>
       <c r="G5" t="n">
-        <v>9402.889999999999</v>
+        <v>750.78</v>
       </c>
       <c r="H5" t="n">
-        <v>1054.81</v>
+        <v>845.58</v>
       </c>
       <c r="I5" t="n">
-        <v>9004.709999999999</v>
+        <v>9289.83495012706</v>
       </c>
       <c r="J5" t="n">
-        <v>166207.477214283</v>
+        <v>403157.007736099</v>
       </c>
       <c r="K5" t="n">
-        <v>46020.21</v>
+        <v>98222.4583048006</v>
       </c>
       <c r="L5" t="n">
-        <v>-504.93</v>
+        <v>-4368.4</v>
       </c>
       <c r="M5" t="n">
-        <v>527.15</v>
+        <v>811.384391811766</v>
       </c>
       <c r="N5" t="n">
-        <v>1360.42</v>
+        <v>3966.17685885976</v>
       </c>
       <c r="O5" t="n">
-        <v>2699.3</v>
+        <v>22579.2034852476</v>
       </c>
       <c r="P5" t="n">
-        <v>81976.47</v>
+        <v>195177.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>23639.86</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
+        <v>62535.5502087215</v>
+      </c>
+      <c r="R5" t="n">
+        <v>459</v>
+      </c>
       <c r="S5" t="n">
-        <v>174691.82</v>
+        <v>425014.79</v>
       </c>
       <c r="T5" t="n">
-        <v>-5895.22439999999</v>
+        <v>588.849473917362</v>
       </c>
       <c r="U5" t="n">
-        <v>183489.87</v>
+        <v>397432.2</v>
       </c>
       <c r="V5" t="n">
-        <v>60399.7744</v>
+        <v>119491.390980594</v>
       </c>
       <c r="W5" t="n">
-        <v>180587.0444</v>
+        <v>424425.940526083</v>
       </c>
       <c r="X5" t="n">
-        <v>1109.77</v>
+        <v>32701.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135102.25</v>
+        <v>277954</v>
       </c>
       <c r="C6" t="n">
-        <v>827.99</v>
+        <v>558</v>
       </c>
       <c r="D6" t="n">
-        <v>11546.56</v>
+        <v>22445</v>
       </c>
       <c r="E6" t="n">
-        <v>1630.97047</v>
+        <v>4046</v>
       </c>
       <c r="F6" t="n">
-        <v>1425.8344</v>
+        <v>2479</v>
       </c>
       <c r="G6" t="n">
-        <v>8666.360000000001</v>
+        <v>574</v>
       </c>
       <c r="H6" t="n">
-        <v>1316.43</v>
+        <v>858</v>
       </c>
       <c r="I6" t="n">
-        <v>9768.196443000001</v>
+        <v>9303</v>
       </c>
       <c r="J6" t="n">
-        <v>191864.98</v>
+        <v>392567</v>
       </c>
       <c r="K6" t="n">
-        <v>56762.73</v>
+        <v>91738</v>
       </c>
       <c r="L6" t="n">
-        <v>-161.956150000002</v>
+        <v>-4106</v>
       </c>
       <c r="M6" t="n">
-        <v>571.5344</v>
+        <v>914</v>
       </c>
       <c r="N6" t="n">
-        <v>1471.786548</v>
+        <v>3767</v>
       </c>
       <c r="O6" t="n">
-        <v>3883.89</v>
+        <v>22875</v>
       </c>
       <c r="P6" t="n">
-        <v>91961.56</v>
+        <v>189525</v>
       </c>
       <c r="Q6" t="n">
-        <v>26149.58</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
+        <v>63944</v>
+      </c>
+      <c r="R6" t="n">
+        <v>650</v>
+      </c>
       <c r="S6" t="n">
-        <v>205294.16385</v>
+        <v>411834</v>
       </c>
       <c r="T6" t="n">
-        <v>-2267.12841100001</v>
+        <v>-1800</v>
       </c>
       <c r="U6" t="n">
-        <v>212261.08</v>
+        <v>387392</v>
       </c>
       <c r="V6" t="n">
-        <v>72459.042261</v>
+        <v>112804</v>
       </c>
       <c r="W6" t="n">
-        <v>207561.292261</v>
+        <v>413633</v>
       </c>
       <c r="X6" t="n">
-        <v>1861.4</v>
+        <v>29122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152207.6926762</v>
+        <v>267061.057575536</v>
       </c>
       <c r="C7" t="n">
-        <v>811.1722</v>
+        <v>491.6</v>
       </c>
       <c r="D7" t="n">
-        <v>13541.9962762</v>
+        <v>24115.38</v>
       </c>
       <c r="E7" t="n">
-        <v>2727.25426</v>
+        <v>4158.6593363525</v>
       </c>
       <c r="F7" t="n">
-        <v>1801.73</v>
+        <v>2625.0033862566</v>
       </c>
       <c r="G7" t="n">
-        <v>7173.11</v>
+        <v>533.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1276.96</v>
+        <v>1320.45</v>
       </c>
       <c r="I7" t="n">
-        <v>10038.970845</v>
+        <v>9627.134673484101</v>
       </c>
       <c r="J7" t="n">
-        <v>224766.052860718</v>
+        <v>378189.963308333</v>
       </c>
       <c r="K7" t="n">
-        <v>67776.2595</v>
+        <v>91331.245075396</v>
       </c>
       <c r="L7" t="n">
-        <v>3544.5689</v>
+        <v>2546.91</v>
       </c>
       <c r="M7" t="n">
-        <v>603.5557678</v>
+        <v>878.0607162374</v>
       </c>
       <c r="N7" t="n">
-        <v>2626.700758</v>
+        <v>3863.6486826663</v>
       </c>
       <c r="O7" t="n">
-        <v>4782.10725</v>
+        <v>19797.6599977552</v>
       </c>
       <c r="P7" t="n">
-        <v>103662.94</v>
+        <v>179568.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>33445.6764</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
+        <v>60873.56</v>
+      </c>
+      <c r="R7" t="n">
+        <v>679.03</v>
+      </c>
       <c r="S7" t="n">
-        <v>235507.6889</v>
+        <v>397073.75</v>
       </c>
       <c r="T7" t="n">
-        <v>-7867.754357</v>
+        <v>-2760.3194436836</v>
       </c>
       <c r="U7" t="n">
-        <v>236514.6</v>
+        <v>374654.16</v>
       </c>
       <c r="V7" t="n">
-        <v>86385.6433308</v>
+        <v>112975.351870393</v>
       </c>
       <c r="W7" t="n">
-        <v>243375.443257</v>
+        <v>399834.069443684</v>
       </c>
       <c r="X7" t="n">
-        <v>2621.63</v>
+        <v>20406.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177532.840265714</v>
+        <v>272512.062169493</v>
       </c>
       <c r="C8" t="n">
-        <v>769.9331058</v>
+        <v>403.85</v>
       </c>
       <c r="D8" t="n">
-        <v>14561.433415534</v>
+        <v>26577.33</v>
       </c>
       <c r="E8" t="n">
-        <v>1802.898947472</v>
+        <v>4080.8189485659</v>
       </c>
       <c r="F8" t="n">
-        <v>1502.6025156646</v>
+        <v>2778.115271005</v>
       </c>
       <c r="G8" t="n">
-        <v>6327.2584</v>
+        <v>878.97</v>
       </c>
       <c r="H8" t="n">
-        <v>1257.075</v>
+        <v>1211.86</v>
       </c>
       <c r="I8" t="n">
-        <v>10036.3410702038</v>
+        <v>9491.522029682301</v>
       </c>
       <c r="J8" t="n">
-        <v>238510.226722952</v>
+        <v>367435.142362267</v>
       </c>
       <c r="K8" t="n">
-        <v>60977.395341</v>
+        <v>80183.45</v>
       </c>
       <c r="L8" t="n">
-        <v>997.870942300004</v>
+        <v>12757.6</v>
       </c>
       <c r="M8" t="n">
-        <v>651.99340455716</v>
+        <v>805.2810729439</v>
       </c>
       <c r="N8" t="n">
-        <v>1791.455934</v>
+        <v>3825.5934874356</v>
       </c>
       <c r="O8" t="n">
-        <v>5279.3048984298</v>
+        <v>14739.63</v>
       </c>
       <c r="P8" t="n">
-        <v>118763.91324875</v>
+        <v>182665.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>37450.094799</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
+        <v>60648.78</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1105.32</v>
+      </c>
       <c r="S8" t="n">
-        <v>251336.2525423</v>
+        <v>378494.32</v>
       </c>
       <c r="T8" t="n">
-        <v>-3729.20804211128</v>
+        <v>-10326.0029791255</v>
       </c>
       <c r="U8" t="n">
-        <v>252855.12</v>
+        <v>341060.4</v>
       </c>
       <c r="V8" t="n">
-        <v>77532.62031869761</v>
+        <v>101568.630809633</v>
       </c>
       <c r="W8" t="n">
-        <v>255065.460584411</v>
+        <v>388820.322979125</v>
       </c>
       <c r="X8" t="n">
-        <v>3810.52</v>
+        <v>25555.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193069.267598</v>
+        <v>285325.429815198</v>
       </c>
       <c r="C9" t="n">
-        <v>735.9</v>
+        <v>352.7048</v>
       </c>
       <c r="D9" t="n">
-        <v>15394.21104</v>
+        <v>28982.972029</v>
       </c>
       <c r="E9" t="n">
-        <v>2043.4316</v>
+        <v>3579.9559707267</v>
       </c>
       <c r="F9" t="n">
-        <v>1519.572405</v>
+        <v>2833.9252596089</v>
       </c>
       <c r="G9" t="n">
-        <v>5318.72</v>
+        <v>808.7979608000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1491.8425</v>
+        <v>1663.300498</v>
       </c>
       <c r="I9" t="n">
-        <v>9760.612878303969</v>
+        <v>9282.523678437101</v>
       </c>
       <c r="J9" t="n">
-        <v>256202.772037611</v>
+        <v>371160.270465893</v>
       </c>
       <c r="K9" t="n">
-        <v>63133.50555535</v>
+        <v>72598.025264</v>
       </c>
       <c r="L9" t="n">
-        <v>-3403.60833430001</v>
+        <v>4839.009</v>
       </c>
       <c r="M9" t="n">
-        <v>615.33543</v>
+        <v>732.8210976589</v>
       </c>
       <c r="N9" t="n">
-        <v>1868.27476</v>
+        <v>3461.04754293</v>
       </c>
       <c r="O9" t="n">
-        <v>5754.62272799999</v>
+        <v>13236.816676</v>
       </c>
       <c r="P9" t="n">
-        <v>130548.79898</v>
+        <v>193924.661301</v>
       </c>
       <c r="Q9" t="n">
-        <v>39658.9931</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
+        <v>58910.234849</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1568.285862</v>
+      </c>
       <c r="S9" t="n">
-        <v>265543.5316657</v>
+        <v>383479.7010392</v>
       </c>
       <c r="T9" t="n">
-        <v>-7202.36856095388</v>
+        <v>-7923.5490653594</v>
       </c>
       <c r="U9" t="n">
-        <v>269164.27</v>
+        <v>352356.18</v>
       </c>
       <c r="V9" t="n">
-        <v>79676.632628654</v>
+        <v>92841.0036133617</v>
       </c>
       <c r="W9" t="n">
-        <v>272745.900226654</v>
+        <v>391403.25010456</v>
       </c>
       <c r="X9" t="n">
-        <v>5101.59</v>
+        <v>27093.31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200006.736703866</v>
+        <v>303986.279026167</v>
       </c>
       <c r="C10" t="n">
-        <v>665.41</v>
+        <v>321.487355688</v>
       </c>
       <c r="D10" t="n">
-        <v>15029.224701472</v>
+        <v>32388.0532117344</v>
       </c>
       <c r="E10" t="n">
-        <v>1791.56256</v>
+        <v>3021.2996867341</v>
       </c>
       <c r="F10" t="n">
-        <v>1522.573405</v>
+        <v>2362.7416868371</v>
       </c>
       <c r="G10" t="n">
-        <v>4543.42</v>
+        <v>493.6242403</v>
       </c>
       <c r="H10" t="n">
-        <v>1227.209875</v>
+        <v>2010.301</v>
       </c>
       <c r="I10" t="n">
-        <v>9147.610893995359</v>
+        <v>7714.4268994828</v>
       </c>
       <c r="J10" t="n">
-        <v>265574.196031871</v>
+        <v>380695.713204571</v>
       </c>
       <c r="K10" t="n">
-        <v>65567.4651128055</v>
+        <v>64414.627903908</v>
       </c>
       <c r="L10" t="n">
-        <v>-4629.565941936</v>
+        <v>-2641.771</v>
       </c>
       <c r="M10" t="n">
-        <v>603.1816</v>
+        <v>650.26</v>
       </c>
       <c r="N10" t="n">
-        <v>1791.389</v>
+        <v>2686.2613994637</v>
       </c>
       <c r="O10" t="n">
-        <v>6757.84536061919</v>
+        <v>12294.807008224</v>
       </c>
       <c r="P10" t="n">
-        <v>135351.71510328</v>
+        <v>205197.24705498</v>
       </c>
       <c r="Q10" t="n">
-        <v>41461.65739277</v>
-      </c>
-      <c r="R10" t="inlineStr"/>
+        <v>61603.195009495</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2497.3346</v>
+      </c>
       <c r="S10" t="n">
-        <v>275061.074058064</v>
+        <v>394847.9751389</v>
       </c>
       <c r="T10" t="n">
-        <v>-6034.85521760298</v>
+        <v>-2604.2158276049</v>
       </c>
       <c r="U10" t="n">
-        <v>280200</v>
+        <v>369773.58173</v>
       </c>
       <c r="V10" t="n">
-        <v>81089.1925718008</v>
+        <v>81171.1049321137</v>
       </c>
       <c r="W10" t="n">
-        <v>281095.923490866</v>
+        <v>397452.190966505</v>
       </c>
       <c r="X10" t="n">
-        <v>4034.06</v>
+        <v>28209.7886492</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>212132.6</v>
+        <v>316252</v>
       </c>
       <c r="C11" t="n">
-        <v>640.9</v>
+        <v>283</v>
       </c>
       <c r="D11" t="n">
-        <v>15359.7</v>
+        <v>34442</v>
       </c>
       <c r="E11" t="n">
-        <v>1986.1</v>
+        <v>2598</v>
       </c>
       <c r="F11" t="n">
-        <v>1582.1</v>
+        <v>2202</v>
       </c>
       <c r="G11" t="n">
-        <v>2239.6</v>
+        <v>603</v>
       </c>
       <c r="H11" t="n">
-        <v>1150.7</v>
+        <v>2459</v>
       </c>
       <c r="I11" t="n">
-        <v>9121.9</v>
+        <v>6547</v>
       </c>
       <c r="J11" t="n">
-        <v>279888.5</v>
+        <v>387268</v>
       </c>
       <c r="K11" t="n">
-        <v>67755.89999999999</v>
+        <v>58802</v>
       </c>
       <c r="L11" t="n">
-        <v>-6360.6</v>
+        <v>-8470</v>
       </c>
       <c r="M11" t="n">
-        <v>635.6</v>
+        <v>640</v>
       </c>
       <c r="N11" t="n">
-        <v>1977.9</v>
+        <v>2378</v>
       </c>
       <c r="O11" t="n">
-        <v>7765.5</v>
+        <v>12213</v>
       </c>
       <c r="P11" t="n">
-        <v>143967.3</v>
+        <v>210159</v>
       </c>
       <c r="Q11" t="n">
-        <v>43691.7</v>
-      </c>
-      <c r="R11" t="inlineStr"/>
+        <v>65673</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3240</v>
+      </c>
       <c r="S11" t="n">
-        <v>301283.8</v>
+        <v>405537</v>
       </c>
       <c r="T11" t="n">
-        <v>5450.7</v>
+        <v>3623</v>
       </c>
       <c r="U11" t="n">
-        <v>297300</v>
+        <v>384633</v>
       </c>
       <c r="V11" t="n">
-        <v>83700.5</v>
+        <v>73449</v>
       </c>
       <c r="W11" t="n">
-        <v>295833.1</v>
+        <v>401915</v>
       </c>
       <c r="X11" t="n">
-        <v>12584</v>
+        <v>29977</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>222947.937</v>
+        <v>321133</v>
       </c>
       <c r="C12" t="n">
-        <v>639.23</v>
+        <v>241</v>
       </c>
       <c r="D12" t="n">
-        <v>17553.08</v>
+        <v>36933</v>
       </c>
       <c r="E12" t="n">
-        <v>3411.5925085115</v>
+        <v>2571</v>
       </c>
       <c r="F12" t="n">
-        <v>2147.1481274184</v>
+        <v>2254</v>
       </c>
       <c r="G12" t="n">
-        <v>1910.64</v>
+        <v>319</v>
       </c>
       <c r="H12" t="n">
-        <v>1040.05</v>
+        <v>3309</v>
       </c>
       <c r="I12" t="n">
-        <v>9159.1735484899</v>
+        <v>6283</v>
       </c>
       <c r="J12" t="n">
-        <v>329728.493343611</v>
+        <v>390891</v>
       </c>
       <c r="K12" t="n">
-        <v>95545.92271222291</v>
+        <v>58457</v>
       </c>
       <c r="L12" t="n">
-        <v>-3663.41</v>
+        <v>-5680</v>
       </c>
       <c r="M12" t="n">
-        <v>730.57826877</v>
+        <v>639</v>
       </c>
       <c r="N12" t="n">
-        <v>3192.045980028</v>
+        <v>1981</v>
       </c>
       <c r="O12" t="n">
-        <v>11234.6227</v>
+        <v>11301</v>
       </c>
       <c r="P12" t="n">
-        <v>153742.48</v>
+        <v>211635</v>
       </c>
       <c r="Q12" t="n">
-        <v>49950.3642</v>
+        <v>65968</v>
       </c>
       <c r="R12" t="n">
-        <v>213.42</v>
+        <v>3047</v>
       </c>
       <c r="S12" t="n">
-        <v>355577.59</v>
+        <v>414519</v>
       </c>
       <c r="T12" t="n">
-        <v>6569.3391545594</v>
+        <v>9659</v>
       </c>
       <c r="U12" t="n">
-        <v>342844.73</v>
+        <v>390158</v>
       </c>
       <c r="V12" t="n">
-        <v>114825.691145441</v>
+        <v>72426</v>
       </c>
       <c r="W12" t="n">
-        <v>349008.250845441</v>
+        <v>404860</v>
       </c>
       <c r="X12" t="n">
-        <v>18306.91</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>252691</v>
-      </c>
-      <c r="C13" t="n">
-        <v>646</v>
-      </c>
-      <c r="D13" t="n">
-        <v>19334</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3612</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2207</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1467</v>
-      </c>
-      <c r="H13" t="n">
-        <v>870</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9212</v>
-      </c>
-      <c r="J13" t="n">
-        <v>368916</v>
-      </c>
-      <c r="K13" t="n">
-        <v>100602</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-4155</v>
-      </c>
-      <c r="M13" t="n">
-        <v>797</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3572</v>
-      </c>
-      <c r="O13" t="n">
-        <v>15623</v>
-      </c>
-      <c r="P13" t="n">
-        <v>175579</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>56060</v>
-      </c>
-      <c r="R13" t="n">
-        <v>346</v>
-      </c>
-      <c r="S13" t="n">
-        <v>393058</v>
-      </c>
-      <c r="T13" t="n">
-        <v>4097</v>
-      </c>
-      <c r="U13" t="n">
-        <v>376444</v>
-      </c>
-      <c r="V13" t="n">
-        <v>120647</v>
-      </c>
-      <c r="W13" t="n">
-        <v>388961</v>
-      </c>
-      <c r="X13" t="n">
-        <v>22236</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>266016</v>
-      </c>
-      <c r="C14" t="n">
-        <v>614</v>
-      </c>
-      <c r="D14" t="n">
-        <v>23780</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3883</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2266</v>
-      </c>
-      <c r="G14" t="n">
-        <v>927</v>
-      </c>
-      <c r="H14" t="n">
-        <v>849</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9253</v>
-      </c>
-      <c r="J14" t="n">
-        <v>391191</v>
-      </c>
-      <c r="K14" t="n">
-        <v>98421</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-3772</v>
-      </c>
-      <c r="M14" t="n">
-        <v>767</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3752</v>
-      </c>
-      <c r="O14" t="n">
-        <v>26754</v>
-      </c>
-      <c r="P14" t="n">
-        <v>183531</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>56768</v>
-      </c>
-      <c r="R14" t="n">
-        <v>378</v>
-      </c>
-      <c r="S14" t="n">
-        <v>418654</v>
-      </c>
-      <c r="T14" t="n">
-        <v>6928</v>
-      </c>
-      <c r="U14" t="n">
-        <v>394513</v>
-      </c>
-      <c r="V14" t="n">
-        <v>118957</v>
-      </c>
-      <c r="W14" t="n">
-        <v>411727</v>
-      </c>
-      <c r="X14" t="n">
-        <v>28841</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>282355</v>
-      </c>
-      <c r="C15" t="n">
-        <v>615</v>
-      </c>
-      <c r="D15" t="n">
-        <v>22710</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4136</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2451</v>
-      </c>
-      <c r="G15" t="n">
-        <v>751</v>
-      </c>
-      <c r="H15" t="n">
-        <v>846</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9290</v>
-      </c>
-      <c r="J15" t="n">
-        <v>403157</v>
-      </c>
-      <c r="K15" t="n">
-        <v>98222</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-4368</v>
-      </c>
-      <c r="M15" t="n">
-        <v>811</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3966</v>
-      </c>
-      <c r="O15" t="n">
-        <v>22579</v>
-      </c>
-      <c r="P15" t="n">
-        <v>195177</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>62536</v>
-      </c>
-      <c r="R15" t="n">
-        <v>459</v>
-      </c>
-      <c r="S15" t="n">
-        <v>425015</v>
-      </c>
-      <c r="T15" t="n">
-        <v>589</v>
-      </c>
-      <c r="U15" t="n">
-        <v>397432</v>
-      </c>
-      <c r="V15" t="n">
-        <v>119491</v>
-      </c>
-      <c r="W15" t="n">
-        <v>424426</v>
-      </c>
-      <c r="X15" t="n">
-        <v>32702</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>277954</v>
-      </c>
-      <c r="C16" t="n">
-        <v>558</v>
-      </c>
-      <c r="D16" t="n">
-        <v>22445</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4046</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2479</v>
-      </c>
-      <c r="G16" t="n">
-        <v>574</v>
-      </c>
-      <c r="H16" t="n">
-        <v>858</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9303</v>
-      </c>
-      <c r="J16" t="n">
-        <v>392567</v>
-      </c>
-      <c r="K16" t="n">
-        <v>91738</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-4106</v>
-      </c>
-      <c r="M16" t="n">
-        <v>914</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3767</v>
-      </c>
-      <c r="O16" t="n">
-        <v>22875</v>
-      </c>
-      <c r="P16" t="n">
-        <v>189525</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>63944</v>
-      </c>
-      <c r="R16" t="n">
-        <v>650</v>
-      </c>
-      <c r="S16" t="n">
-        <v>411834</v>
-      </c>
-      <c r="T16" t="n">
-        <v>-1800</v>
-      </c>
-      <c r="U16" t="n">
-        <v>387392</v>
-      </c>
-      <c r="V16" t="n">
-        <v>112804</v>
-      </c>
-      <c r="W16" t="n">
-        <v>413633</v>
-      </c>
-      <c r="X16" t="n">
-        <v>29122</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>267061.057575536</v>
-      </c>
-      <c r="C17" t="n">
-        <v>491.6</v>
-      </c>
-      <c r="D17" t="n">
-        <v>24115.38</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4158.6593363525</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2625.0033862566</v>
-      </c>
-      <c r="G17" t="n">
-        <v>533.8</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1320.45</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9627.134673484101</v>
-      </c>
-      <c r="J17" t="n">
-        <v>378189.963308333</v>
-      </c>
-      <c r="K17" t="n">
-        <v>91331.245075396</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2546.91</v>
-      </c>
-      <c r="M17" t="n">
-        <v>878.0607162374</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3863.6486826663</v>
-      </c>
-      <c r="O17" t="n">
-        <v>19797.6599977552</v>
-      </c>
-      <c r="P17" t="n">
-        <v>179568.38</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>60873.56</v>
-      </c>
-      <c r="R17" t="n">
-        <v>679.03</v>
-      </c>
-      <c r="S17" t="n">
-        <v>397073.75</v>
-      </c>
-      <c r="T17" t="n">
-        <v>-2760.3194436836</v>
-      </c>
-      <c r="U17" t="n">
-        <v>374654.16</v>
-      </c>
-      <c r="V17" t="n">
-        <v>112975.351870393</v>
-      </c>
-      <c r="W17" t="n">
-        <v>399834.069443684</v>
-      </c>
-      <c r="X17" t="n">
-        <v>20406.48</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>272512.062169493</v>
-      </c>
-      <c r="C18" t="n">
-        <v>403.85</v>
-      </c>
-      <c r="D18" t="n">
-        <v>26577.33</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4080.8189485659</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2778.115271005</v>
-      </c>
-      <c r="G18" t="n">
-        <v>878.97</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1211.86</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9491.522029682301</v>
-      </c>
-      <c r="J18" t="n">
-        <v>367435.142362267</v>
-      </c>
-      <c r="K18" t="n">
-        <v>80183.45</v>
-      </c>
-      <c r="L18" t="n">
-        <v>12757.6</v>
-      </c>
-      <c r="M18" t="n">
-        <v>805.2810729439</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3825.5934874356</v>
-      </c>
-      <c r="O18" t="n">
-        <v>14739.63</v>
-      </c>
-      <c r="P18" t="n">
-        <v>182665.65</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>60648.78</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1105.32</v>
-      </c>
-      <c r="S18" t="n">
-        <v>378494.32</v>
-      </c>
-      <c r="T18" t="n">
-        <v>-10326.0029791255</v>
-      </c>
-      <c r="U18" t="n">
-        <v>341060.4</v>
-      </c>
-      <c r="V18" t="n">
-        <v>101568.630809633</v>
-      </c>
-      <c r="W18" t="n">
-        <v>388820.322979125</v>
-      </c>
-      <c r="X18" t="n">
-        <v>25555.29</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>285325.429815198</v>
-      </c>
-      <c r="C19" t="n">
-        <v>352.7048</v>
-      </c>
-      <c r="D19" t="n">
-        <v>28982.972029</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3579.9559707267</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2833.9252596089</v>
-      </c>
-      <c r="G19" t="n">
-        <v>808.7979608000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1663.300498</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9282.523678437101</v>
-      </c>
-      <c r="J19" t="n">
-        <v>371160.270465893</v>
-      </c>
-      <c r="K19" t="n">
-        <v>72598.025264</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4839.009</v>
-      </c>
-      <c r="M19" t="n">
-        <v>732.8210976589</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3461.04754293</v>
-      </c>
-      <c r="O19" t="n">
-        <v>13236.816676</v>
-      </c>
-      <c r="P19" t="n">
-        <v>193924.661301</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>58910.234849</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1568.285862</v>
-      </c>
-      <c r="S19" t="n">
-        <v>383479.7010392</v>
-      </c>
-      <c r="T19" t="n">
-        <v>-7923.5490653594</v>
-      </c>
-      <c r="U19" t="n">
-        <v>352356.18</v>
-      </c>
-      <c r="V19" t="n">
-        <v>92841.0036133617</v>
-      </c>
-      <c r="W19" t="n">
-        <v>391403.25010456</v>
-      </c>
-      <c r="X19" t="n">
-        <v>27093.31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>303986.279026167</v>
-      </c>
-      <c r="C20" t="n">
-        <v>321.487355688</v>
-      </c>
-      <c r="D20" t="n">
-        <v>32388.0532117344</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3021.2996867341</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2362.7416868371</v>
-      </c>
-      <c r="G20" t="n">
-        <v>493.6242403</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2010.301</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7714.4268994828</v>
-      </c>
-      <c r="J20" t="n">
-        <v>380695.713204571</v>
-      </c>
-      <c r="K20" t="n">
-        <v>64414.627903908</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-2641.771</v>
-      </c>
-      <c r="M20" t="n">
-        <v>650.26</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2686.2613994637</v>
-      </c>
-      <c r="O20" t="n">
-        <v>12294.807008224</v>
-      </c>
-      <c r="P20" t="n">
-        <v>205197.24705498</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>61603.195009495</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2497.3346</v>
-      </c>
-      <c r="S20" t="n">
-        <v>394847.9751389</v>
-      </c>
-      <c r="T20" t="n">
-        <v>-2604.2158276049</v>
-      </c>
-      <c r="U20" t="n">
-        <v>369773.58173</v>
-      </c>
-      <c r="V20" t="n">
-        <v>81171.1049321137</v>
-      </c>
-      <c r="W20" t="n">
-        <v>397452.190966505</v>
-      </c>
-      <c r="X20" t="n">
-        <v>28209.7886492</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>316252</v>
-      </c>
-      <c r="C21" t="n">
-        <v>283</v>
-      </c>
-      <c r="D21" t="n">
-        <v>34442</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2598</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2202</v>
-      </c>
-      <c r="G21" t="n">
-        <v>603</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2459</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6547</v>
-      </c>
-      <c r="J21" t="n">
-        <v>387268</v>
-      </c>
-      <c r="K21" t="n">
-        <v>58802</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-8470</v>
-      </c>
-      <c r="M21" t="n">
-        <v>640</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2378</v>
-      </c>
-      <c r="O21" t="n">
-        <v>12213</v>
-      </c>
-      <c r="P21" t="n">
-        <v>210159</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>65673</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3240</v>
-      </c>
-      <c r="S21" t="n">
-        <v>405537</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3623</v>
-      </c>
-      <c r="U21" t="n">
-        <v>384633</v>
-      </c>
-      <c r="V21" t="n">
-        <v>73449</v>
-      </c>
-      <c r="W21" t="n">
-        <v>401915</v>
-      </c>
-      <c r="X21" t="n">
-        <v>29977</v>
+        <v>30361</v>
       </c>
     </row>
   </sheetData>
